--- a/resources/testData/LogIn.xlsx
+++ b/resources/testData/LogIn.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>TestCaseId</t>
   </si>
@@ -86,6 +86,18 @@
   </si>
   <si>
     <t>//a[contains(@href, '/logout')]</t>
+  </si>
+  <si>
+    <t>openUrl</t>
+  </si>
+  <si>
+    <t>/en/technology</t>
+  </si>
+  <si>
+    <t>#UserName</t>
+  </si>
+  <si>
+    <t>#Password</t>
   </si>
 </sst>
 </file>
@@ -220,8 +232,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F8" totalsRowShown="0">
-  <autoFilter ref="A1:F8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F9" totalsRowShown="0">
+  <autoFilter ref="A1:F9"/>
   <tableColumns count="6">
     <tableColumn id="1" name="TestCaseId"/>
     <tableColumn id="2" name="Action"/>
@@ -509,15 +521,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="57.28515625" customWidth="1"/>
@@ -550,13 +562,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -564,16 +573,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -587,10 +593,10 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -598,13 +604,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -612,10 +621,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -623,13 +635,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
+        <v>11</v>
+      </c>
+      <c r="E7">
+        <v>3000</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -637,10 +646,24 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="E8">
-        <v>1</v>
+      <c r="E9">
+        <v>3000</v>
       </c>
     </row>
   </sheetData>
@@ -656,7 +679,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
